--- a/data/hotels_by_city/Dallas/Dallas_shard_425.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_425.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="835">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Brenda A</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r565883649-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>I planned to stay for one night but after seeing people working on their cars in the parking lot and the price was 95.00 plus a 40.00 deposit; I walked out. The place has a good location but it's not a good value. More</t>
   </si>
   <si>
+    <t>Jose I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r562747724-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>We were in the area for work. We booked two rooms. There was a slight glitch in processing one of the rooms because I booked it using points, so it was a free stay. Other than that no problems. Our rooms were comfy and clean. Loved the shower liner having actual shelves for soap and such - in the shape of shells no less. Breakfast was your standard continental fare. Food close by. Would stay again. More</t>
   </si>
   <si>
+    <t>MedicalTravlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r558143730-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>Responded February 5, 2018</t>
   </si>
   <si>
+    <t>christohers2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r557368496-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>Responded January 31, 2018</t>
   </si>
   <si>
+    <t>randyrL3247NI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r549761176-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>Staff was friendly. "Smoking" Room was downstairs (much appreciated). Only downside was a family of young (small) roaches sharing the room.Waffle House conveniently across the street.More</t>
   </si>
   <si>
+    <t>randallw988</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r547169363-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>Responded December 15, 2017</t>
   </si>
   <si>
+    <t>alexandrej977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r544417988-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>The room was dirty. There wasn't a pluge by the bed for my cpap. Had to fitto get extra towels.Then was told there better not be any hair dye on them. Was charged 15$ for my therapy dog.After the manager told me he would wave the fee. Then they charged my credit card 100$ more after the room and the 15$ fee.More</t>
   </si>
   <si>
+    <t>954cartert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r542918037-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>The price was very reasonable - older building, no elevator, very smelly lobby, but room was clean if a little on the shabby side. They did not tell me what time breakfast was, so I missed it and can't speak to the quality. They could not accommodate a late check out. More</t>
   </si>
   <si>
+    <t>myrtle1949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r538763143-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>The staff was friendly and helpful, room was clean. There was a dead HUGE rat floating in the pool one night and a large roach was in the bathroom. Along the back side of the motel were large black rat traps. It was also quite noisy. We could hear the people next door talking half the night.More</t>
   </si>
   <si>
+    <t>Cooper M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r481636226-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -414,6 +447,9 @@
     <t>Responded May 4, 2017</t>
   </si>
   <si>
+    <t>A9650IEshirleys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r481342954-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -432,6 +468,9 @@
     <t>The price was a bit pricey compared to when I visited a few times before.  I don't understand how what I paid had n AARP discount. Not satisfied at all. Probably will be searching for somewhere else next time and don't like my card being held hostage two days later. And get an overdraft fee due to the long hold on my card after check out.  More</t>
   </si>
   <si>
+    <t>Forsaken81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r470866967-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -459,6 +498,9 @@
     <t>First u need a deposit.which makes no sence cause there r better hotels that dont have any depositMore</t>
   </si>
   <si>
+    <t>danieljA4768JA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r465137868-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -477,6 +519,9 @@
     <t>Responded March 8, 2017</t>
   </si>
   <si>
+    <t>X5328NLsylviam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r464819406-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>I have never seen or heard of a hotel or motel that does not have HOT WATER to have for a shower. We travel every year for the past 7 yrs. and we will never stop at that motel again. Thoroughly disgusted. Sylvia Murray- CANADAMore</t>
   </si>
   <si>
+    <t>howardh981</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r460128995-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -519,6 +567,9 @@
     <t>Everything was fine except for the very strong smell of cigarette smoke near my Non-Smoking room, and it was very noisy from kids talking and playing in the hallway and nearby rooms until well into the night.More</t>
   </si>
   <si>
+    <t>Lanab3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r455942921-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -546,6 +597,9 @@
     <t>Dirty, hard bed . No plugs near headboard for cpap.  Light comes in the windows.  Heater/AC didn't work.More</t>
   </si>
   <si>
+    <t>A8002EQroberts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r453117867-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -570,6 +624,9 @@
     <t>Poor.  Hotel smelled bad. Room was not clean.  I could not trust the cleanliness of the bedding.More</t>
   </si>
   <si>
+    <t>letreseb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r445948029-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -588,6 +645,9 @@
     <t>Responded December 22, 2016</t>
   </si>
   <si>
+    <t>Harriett R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r445647824-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -606,6 +666,9 @@
     <t>Our room was very nice. The only complaint we had was that not all of the light fixtures in the room worked, so it was dark. Good thing we didn't want to read or work on our electronics.More</t>
   </si>
   <si>
+    <t>817billym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r415421418-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -633,6 +696,9 @@
     <t>Never stay there again! People walking up and down the halls all night. Bad neighborhood with drug selling going on . Horrible smell and decor!More</t>
   </si>
   <si>
+    <t>Trbanks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r407550590-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -660,6 +726,9 @@
     <t>Wifi was not good, slow and would drop connection all the time.  Any other issues or questions I had, were handled quickly and met my needs.More</t>
   </si>
   <si>
+    <t>suzellel2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r406224097-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -675,6 +744,9 @@
     <t>Responded August 17, 2016</t>
   </si>
   <si>
+    <t>502estelam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r406194532-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -687,6 +759,9 @@
     <t>Responded August 26, 2016</t>
   </si>
   <si>
+    <t>Jeff G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r404146687-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -714,6 +789,9 @@
     <t>Be advised that there are multiple places where the pet fee is posted to be 15.00 per night but they will try to charge you 20.00 per night. Most of the rooms need to be renovated. The AC in our room sounded like two freight trains with 2000 cars each were passing by all the time.Someone that owns or works there lives on property so you will without a doubt hear screaming kids at all hours. When we reported this we were informed that "its just life".More</t>
   </si>
   <si>
+    <t>pamelao539</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r403361828-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -738,6 +816,9 @@
     <t>Nice friendly service. Clean rooms . soft beds. Clean carpet. Sink and bathroom clean. No bed bugs.More</t>
   </si>
   <si>
+    <t>kennethk621</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r402363548-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -760,6 +841,9 @@
   </si>
   <si>
     <t>I checked in at 2 am,  was working all night and needed to lay down till 6am so I could go back to work... they charged me a $40 deposit????It took two days to get my deposit back!!!!More</t>
+  </si>
+  <si>
+    <t>Anita H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r397355394-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
@@ -790,6 +874,9 @@
 Our room was like a prison. Dark, one light bulb over a table with two of the most uncomfortable straight back chairs I've ever used.  There was a tall floor lamp but the knob to turn it on was barely attached. I was afraid I'd get electrocuted. The bathroom had minimal everything. The tub was stained brown at bath level. The toilet, shower and sink worked but I cringed every time I used anything.  The cooling was a...Upon check-in the poor service started. The desk worker couldn't find our reservation made via Expedia. I was looking on my phone for the confirmation # and he told us to go sit down and he would call us up when he was ready. We were the only people in the lobby!  We finally got a room after Expedia called him.  We had to give a $40 deposit that we would get back upon check out. I asked why that wasn't mentioned on their site and he just ignored my question. The hotel was horrible. It reeked of stale smoke.  It was dark and drab in the hall. The floor was so uneven and had holes under the disgusting carpet that I actually stumbled on one of the lumps.  Outside in the back by the entrance to our hall there were piles of trash and beer bottles. The door was not locked at anytime. So no security and no sense of safety. Our room was like a prison. Dark, one light bulb over a table with two of the most uncomfortable straight back chairs I've ever used.  There was a tall floor lamp but the knob to turn it on was barely attached. I was afraid I'd get electrocuted. The bathroom had minimal everything. The tub was stained brown at bath level. The toilet, shower and sink worked but I cringed every time I used anything.  The cooling was a window unit! In Texas in the summer its 100+ during the day. The hall was so hot we were sweating walking to the room. The morning continental breakfast was a joke. There were some HARD STALE Danish, a pot of coffee and some bottles of juice. We chose not to eat or drink their food! The pool was clean but very small. I'd suggest you stay anywhere but here! I hit the wrong button when I was making the reservation. I thought I'd selected Holiday Inn Express! I learned to double check before confirming!! More</t>
   </si>
   <si>
+    <t>527eduardob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r394348587-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -805,6 +892,9 @@
     <t>Responded July 20, 2016</t>
   </si>
   <si>
+    <t>Y7186CEcindyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r391327059-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -829,6 +919,9 @@
     <t>The only redeeming quality of this hotel was the friendliness of the staff. Everything else was basically disgusting and unsafe. Luckily, the air conditioner sounded like a freight train, but at least it  drowned out the sound of all of the unsavory activities going on all night. We booked this because they were pet friendly and had a pool. We could not use the pool because of the non-hotel guests that had invaded it and had liquor bottles smashed all around it. There were numerous "solicitors" of all kinds surrounding the hotel at all times; I did not feel safe taking my 2 huge dogs out after getting approached 3 times for money or asked to buy the goods! Lastly, the room was simply gross. Do not stay here. More</t>
   </si>
   <si>
+    <t>DANIEL D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r385567531-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -856,6 +949,9 @@
     <t>Mattresses were dirty. Very little parking. Ac was blew air low even while on high settings. Not the best hotel we have stayed in.More</t>
   </si>
   <si>
+    <t>robertsF6840TM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r377636772-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -877,6 +973,9 @@
     <t>Responded May 31, 2016</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r376312457-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -898,6 +997,9 @@
     <t>The inside isn't comfortable at all or that at home feeling. The staff are very ride and judgmental. The entire hotel could afford too be remodeled. They tack on unexplainable fees. I would for sure avoid this hotel at all possibility. There isn't really anything at all I enjoyed about my stay here.More</t>
   </si>
   <si>
+    <t>4601234567</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r374955707-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -916,6 +1018,9 @@
     <t>OMG!  I had to leave with my dog!  It stunk.  The phone didn't work, the A/C was so very loud, I could not believe it!  So after going up 3 flights with my luggage, then talking with my son to let him know I made it in town (after 8 hrs of driving) going back downstairs to tell Sunny I could not stay, I was charged a whole day + 10.00 for my dog!!!!!  My best girlfriend paid for one night at Best Western Plus.  I was soooo happy there!  Then I paid the rest, which was more $, but well worth it, instead of the rat hole I booked at Howard Johnson.  The gen. mgr. was mean and said ugly things to me.  I wouldn't wish this upon anyone.  Be careful!  After that ordeal, then driving back to Rockport, TX, I am just now able to discuss it, and report it to the mgmt.More</t>
   </si>
   <si>
+    <t>736donaldw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r374370478-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1030,9 @@
     <t>05/18/2016</t>
   </si>
   <si>
+    <t>Y386QCcathyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r373415330-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -934,6 +1042,9 @@
     <t>05/16/2016</t>
   </si>
   <si>
+    <t>Reshma K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r372715213-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1072,9 @@
     <t>The room was clean and smoke free, the bed was comfy and the hotel manager became like an older brother to me. It was located near the Denton Square and the area was convenient and close to a major shopping area.More</t>
   </si>
   <si>
+    <t>Richard W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r370154470-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1090,9 @@
     <t>Responded May 5, 2016</t>
   </si>
   <si>
+    <t>rubenb944</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r368298318-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1117,9 @@
     <t>The room was made available in a timely fashion. The shower oh my needs to be looked at. The tub was horrible. Needs to be replaced. Don't think any cleaning would have helped. The room felt old. The place needs a remodel. The front desk clerk was very nice and courteous. The baby crying in the next room kept us up for a good while. Won't be staying there again.More</t>
   </si>
   <si>
+    <t>B753AGwilliamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r368194906-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1135,9 @@
     <t>Overall, nothing really to complain about service and such. The TV viewing needs a lot of improvement though. Very few channels and lousy reception. No HD programs.More</t>
   </si>
   <si>
+    <t>Janice R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r361863490-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1153,9 @@
     <t>Responded April 6, 2016</t>
   </si>
   <si>
+    <t>kerryo724</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r361522077-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1051,6 +1177,9 @@
     <t>I had a very nice stay while I was in Denton. My room was cleaned daily, and it was nice and quiet. I would have liked to have an elevator to the third floor but it was okay. (I need the exercise). They carried my bags up for me as well. If I could improve anything it would be to get better cable choices as there weren't many channels on the list. Thanks!More</t>
   </si>
   <si>
+    <t>Cheryl C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r360478980-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1195,9 @@
     <t>Responded April 1, 2016</t>
   </si>
   <si>
+    <t>tammie1228</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r357676278-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1090,6 +1222,9 @@
     <t>We have a room booked here for April 9 to stay after the Nascar Race.  The place we normally stay was already full, we booked the room through Priceline.  I sure hope these issues are fixed by the time we get there. We aren't expecting a 4 star room at a 2 star price, just a nice clean room with a decent breakfast.More</t>
   </si>
   <si>
+    <t>Pat M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r352255910-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1108,6 +1243,9 @@
     <t>Responded March 2, 2016</t>
   </si>
   <si>
+    <t>601tawannae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r352127902-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1261,9 @@
     <t>carpet need to be shampooed,sink in bathroom drain to slow, I had a suite not worth the money didn't have enough plugs for everything that needed to be plugged up  was using extention cards Rooms need up grading the chairs need to be replace stains all in them i didn't want to sit in themMore</t>
   </si>
   <si>
+    <t>bob c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r351846106-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1288,9 @@
     <t>almost rebooked after reading all the negative reviews here.  it is what it is.  a budget motel with no frills.  check in was good.  my room was clean.  good water pressure on the shower.  what else are you looking for when you pay 70 bucks per night.  room was serviced at a decent time.  this isn't the ritz, and you aren't paying for the ritz.  I would stay here again.  the dude that checked me in at 2am, was very friendly, and made me feel welcome.More</t>
   </si>
   <si>
+    <t>Sheryl G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r349773252-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1315,9 @@
     <t>There are no elevators. We were booked in a 3rd floor room. It did not look as pictured on the website.The first room was disgusting, the bathroom door had been kicked in and would not close. The room was filthy, with soda on the walls and it had a 3 drawer dresser.  We were moved to an outside room, it did not have WIFI, the TV reception was not very clear and it was very outdated. I was disappointed with the pricing of the rooms, it was not worth the money. I will not be staying at HOJO in the futureMore</t>
   </si>
   <si>
+    <t>382dannyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r348633347-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1336,9 @@
     <t>Responded February 19, 2016</t>
   </si>
   <si>
+    <t>502curtisw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r348568788-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1354,9 @@
     <t>Lobby was nice enough. But smelled like smoke throughout the whole motel. Slept bad, and in the morning I had this scratchy and slight sore throat due to the smoke I assume. My clothes stunk of cigs. Will not stay there again.More</t>
   </si>
   <si>
+    <t>b1bayer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r339196141-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1381,9 @@
     <t>My 85 year old mother and I spent 4 nights.  When we first arrived after the 2 men at the front spending at least 20 minutes trying to find us a room away from smoking rooms with 2 beds, they put us upstairs in a tiny, smelly, dingy dark room that DID NOT HAVE A SINGLE AVAILABLE OUTLET.  So.....I went down and told them it was not acceptable and they then he showed me a nice, large, cleaner room with 2 queen beds in the building in the rear.  I took it and then was told it was an additional 16 dollars a night.  Are you kidding me????  Breakfast is a joke, water colored coffee, cereal a waffle iron and a few small pastries from Walmart.  All in all they have lost what could have been very regular customers as my new grandbaby lives in Denton.More</t>
   </si>
   <si>
+    <t>P852ZQdanb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r337391356-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1243,6 +1399,9 @@
     <t>Responded January 11, 2016</t>
   </si>
   <si>
+    <t>Travers S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r330222987-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1267,6 +1426,9 @@
     <t>First off: Not shy family travelers here. Two 40something guys who have been all over and stayed in all sorts of places. But seriously, this place isn't worth the savings.1. Heater in room didn't work.2. Room reeked of awful heavy fragrance. I swear it was like '70s jojoba hair conditioner.3. TV channels didn't work.4. Walls and carpets dirty, stained, torn.5. Minimal towels and pillows.6. Neighborhood full of prostitutes, addicts, etc.7. Hallways smell of smoke and ... Unknown aromas.8. Difficult access from freeway.9. Dirty thin sheets.10. Desk reluctant to provide extra ice bucket, towels.11. So many smells!!!More</t>
   </si>
   <si>
+    <t>H3133KErebeccaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r326101530-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1456,9 @@
     <t>Will not stay again.  Rooms had a terrible smell.  The bed pillows smelled like someones hair gel that kept me awake and gave me a headache.  The room was so run down I put tissue down on the night stand and bathroom counter before I would even put my phone on it or toiletties on them.  TV reception was terrible.  Was very disapointed in accompdations.  Staff was friendly.  Does not justify another stay. More</t>
   </si>
   <si>
+    <t>tanyah474</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r326074480-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1303,6 +1468,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Marisa P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r314498991-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1498,9 @@
     <t>Room was dirty, roaches and crickets in room.  TV barely worked and was not able to either see a channel (fuzzy) or sound was awful. More</t>
   </si>
   <si>
+    <t>UNTMom74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r312492921-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1348,6 +1519,9 @@
     <t>Their photos are VERY deceiving!!  My 9 year old was scared to stay there! The room wreaked of cigarettes (and some other funky smell) even though it was non-smoking room. We were put across the hall from people I assume live there.  They were constantly in and out of their room with their toddler screaming the entire two days. My son likened the scream to a banshee.  And it seemed most people staying there LIVED there. There was just one plug in the entire room and it had a power strip that was over-loaded from tv, fridge, lights. No wifi. The AC was literally falling apart. It squeaked and made noise both nights of our stay. The location was TERRIBLE. We were right by a "romance" shop. We weren't looking for 5 star, but we did want a decent place to stay. FAIL!More</t>
   </si>
   <si>
+    <t>maryjk1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r303520114-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1549,9 @@
     <t>Literally left this hotel and checked in LA quinta, which was a nicer room for close to the same cost (after taxes and fees).. a tons nicer, like 1000 times. The staff at Howard Johnson express were very rude and didn't have compassion for their guests. After accusing me of smoking in the room, I was then threatened to be turned into authorities by the manager or pay an additional $150. I literally did not smoke in the room but I guess they must really believe that their rooms are just that clean because he said there was a 0% chance the guest before me had done such a thing. So the only reasonable explanation was that I, or my guest, smoked in the room - even though we didn't. Guess that didn't matter to him tho so I got dinged when he kept my deposit and said he was reporting me to DPD. The words/feelings of the guests are completely ignored because he is the prosecution and the jury and what he says, goes. Will NEVER EVER EVER return to this location or stay at any Howard Johnson Inn ever again.More</t>
   </si>
   <si>
+    <t>lisahC5355YL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r301978669-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1393,6 +1570,9 @@
     <t>The staff was friendly and attentive to our needs. Quiet and respectful guest clientele. The building, furniture, and linens need some upgrading, replacement and renovation. The maintenance worker responds quickly to any concerns. The pool area was clean, but some of the pool furniture is in need of replacing.More</t>
   </si>
   <si>
+    <t>luv2live2blessed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r297337328-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1411,6 +1591,9 @@
     <t>Place wasn't clean, air didn't work and when we complained we were told she would refund us and we had to leave but since there was a conference in town all other hotels were full we were trying to decide what to do.  While we were trying to decide she called the police and said we threatened her with calling the corporate office and wouldn't leave.  The police even laughed at the situation, we politely left after getting a refund and found a nice room a few miles away that was cheaper.SmellsDirtyNo airRude Overpriced Deserves no stars!!!!!More</t>
   </si>
   <si>
+    <t>Manuel Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r293762753-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1423,6 +1606,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Mike P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r292534674-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1444,6 +1630,9 @@
     <t>In February we, my husband and I, invited his mother, sister, brother-in-law and niece to get away from the cold Wisconsin winter for a visit in beautifully warm Texas. Needless to say they came down and we got hit with all that snow! But with getting rooms at Howard Johnson's at the N I-35 Denton exit we were able to enjoy our time together and visit in a comfortable atmosphere. The breakfast was an added bonus. You made mom comfortable and I appreciate that, she deserved it! The rooms were very clean and management friendly.More</t>
   </si>
   <si>
+    <t>michaelwU5860VU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r285630721-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1462,6 +1651,9 @@
     <t>Responded July 10, 2015</t>
   </si>
   <si>
+    <t>Chevymom4x4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r280675286-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1480,6 +1672,9 @@
     <t>We chose to ignore the bad reviews and give this hotel a try and I'm glad we did! Our room was clean and comfortable with micro and fridge. Nice flat screen TV and great shower too. Our dog was welcomed with a small fee which was greatly appreciated. Breakfast was basic with waffles and the staff was friendly and helpful. The only issue I had was the weak wifi signal.  We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Sandy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r280087743-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1498,6 +1693,9 @@
     <t>We were stuck in the back building. Room stunk. Dead bug smushed into a towel, which was better than the live one running around the bed. The breakfast was in a tiny room without enough chairs for the tables and a line for the waffle maker.  I feel as if I need to burn my clothes. No WiFi. It " just went down last night ".  There was, however, a refrigerator and microwave in our room More</t>
   </si>
   <si>
+    <t>Michael K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r278844589-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1516,6 +1714,9 @@
     <t>Hotel was clean and comfortable. Close to restaurants and winstar casino. Great value with helpful and friendly staff More</t>
   </si>
   <si>
+    <t>Delbert V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r273905720-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1537,6 +1738,9 @@
     <t>We were extremely tired or else we would have found another place to stay. The room smelled like they were trying to cover over a smell. Box springs were yellow, Pillows were stained. Mattress cover was stained. Shower was yellow. Furniture beaten up. Everything was dirty. It was a good thing we brought our own pillow cases, towels and sheets. When we alerted hotel personnel, they didn't care. They blamed our problems on Hotwire saying they couldn't help us because we booked through them. We booked non smoking room and showed it to them, but they didn't care that they gave us a smoking room. They said we could get a different room if we wanted to pay more.More</t>
   </si>
   <si>
+    <t>Jimmymed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r273476165-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1555,6 +1759,9 @@
     <t>Hey! Its been a while since I reviewed something but I figured it would be worth my time for you all. I have been sitting here trying to get my money credited back to my account that Howard Johnson agreed to refund me. We were tired and finally gave up driving. We picked this hotel as it was on the interstate and it was the cheapest on Kayak. Everywhere else was booked. The Holiday Inn wanted $190 a night. We went up to our rooms. Outside looks decent. When opening the rooms it smelled musty and of urine. My girlfriend went to use the bathroom and there was urine on the seat. She also noticed pubic\curly hair on the tub ledge with black specks. There was also brown splatters of brown all over the wall next to the sink. We decided to keep our clothes on and just sleep as we were so tired. I turned the lights off and about two minutes later felt two bugs run across my neck. It was over. We got up and asked for our money back. We had to show the man on duty what was wrong before we were given a refund. We received a receipt of refund but am on the phone right now waiting because it was not returned to me.More</t>
   </si>
   <si>
+    <t>Rosalyn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r261778479-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1576,6 +1783,9 @@
     <t>Unpleasant smells, holes in blanket.  Stayed 2 nights - bathroom was given fresh towels but beds were not made up.  Poor internet speed.  Not much left at breakfast bar with 45 minutes to closing time.  More</t>
   </si>
   <si>
+    <t>Priscilla V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r261520180-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1585,6 +1795,9 @@
     <t>03/24/2015</t>
   </si>
   <si>
+    <t>Aron D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r228000821-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1603,6 +1816,9 @@
     <t>Responded March 22, 2018</t>
   </si>
   <si>
+    <t>Diane0810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r226960792-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1624,6 +1840,9 @@
     <t>This was absolutely the worst hotel I have ever been in.  The rooms are not as pictured.  They are disgusting.  I found the bug walking on the carpet and when I told the front desk, they just shrugged their shoulders.  Didn't help that they couldn't speak English.  The rooms smelled awful; not sure what it was.  The bathroom was so dark and dingy we didn't even take showers.  We didn't want to touch anything.  The hotel needed so much maintenance and updating that it was obvious they don't care at all about your stay, just getting your dollars.  Unfortunately my elderly parents had already prepaid for the room and it was very late and they needed to rest or I would not have stayed.  I actually went across to Wal-Mart and bought pillows and blankets so I didn't have to touch their linens.  These owners and managers do not care about your comfort and safety....don't give them your hard earned money.  Stay somewhere else!More</t>
   </si>
   <si>
+    <t>Victoria G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r226149002-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1633,6 +1852,9 @@
     <t>09/01/2014</t>
   </si>
   <si>
+    <t>Linda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r220921459-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1642,6 +1864,9 @@
     <t>08/10/2014</t>
   </si>
   <si>
+    <t>Melissa T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r219149790-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1660,6 +1885,9 @@
     <t>We were planning to stay for 2 nights while visiting our daughter. The Howard Johnson website says they have truck parking but it is really just park on the street. The same website gave me a price that when went to check in the hotel refused to honor. I stated they had to honor a price that their site gave and she still refused. Very rude woman. We went down the road where they did honor  the price given by that hotels website. It was well worth the extra money! I did view the room and it seemed clean.More</t>
   </si>
   <si>
+    <t>Nellie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r216669672-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1675,6 +1903,9 @@
     <t>Responded July 26, 2014</t>
   </si>
   <si>
+    <t>Barbara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r214580258-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1693,6 +1924,9 @@
     <t>Responded July 14, 2014</t>
   </si>
   <si>
+    <t>Cory G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r214171257-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1702,12 +1936,18 @@
     <t>07/07/2014</t>
   </si>
   <si>
+    <t>sannnndy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r214065360-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
     <t>214065360</t>
   </si>
   <si>
+    <t>Gregory M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r212260277-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1732,6 +1972,9 @@
     <t>Had a pleasant stay.  As described below, the only issue was finding a field roach in the bed.  The motel had been sprayed earlier that day, but nothing can be done about field roaches.More</t>
   </si>
   <si>
+    <t>Anil C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r210653339-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1741,6 +1984,9 @@
     <t>06/16/2014</t>
   </si>
   <si>
+    <t>Ronnie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r209815494-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1759,6 +2005,9 @@
     <t>This is and older facility, but I have stayed at Howard Johnson in the past (many years ago) and this hotel chain was a great place to stay. I have now stayed at three different Howard Johnson motels and have had to check out early from each of them due to the odors from ethnic type foods and incense. In Gallup New  mexico the motel not only wreaked of ethnic herbals but it was so hot even the candy had melt in the vending machines. On this recent stay in Denton Texas I was scheduled to stay three days and I was forced to cancel two of those days and move to the Hampton Inn. I enjoy staying at the Wyndham facilities, but I will never stay at another Howard Johnson.More</t>
   </si>
   <si>
+    <t>Denise W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r208008385-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1777,6 +2026,9 @@
     <t>Responded June 10, 2014</t>
   </si>
   <si>
+    <t>Elmer B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r207933402-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1795,6 +2047,9 @@
     <t>The staff was very friendly and the room was great for the price and very clean. Would recommend.  More</t>
   </si>
   <si>
+    <t>Mojie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r206538275-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +2059,9 @@
     <t>05/21/2014</t>
   </si>
   <si>
+    <t>Benjamin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r186738647-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1822,6 +2080,9 @@
     <t>Responded December 11, 2013</t>
   </si>
   <si>
+    <t>Belinda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r186097963-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1837,6 +2098,9 @@
     <t>Responded December 2, 2013</t>
   </si>
   <si>
+    <t>Li_Galo_Travl_Writer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r184710658-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1852,6 +2116,9 @@
     <t>Responded November 26, 2013</t>
   </si>
   <si>
+    <t>Storyspinning</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r181604936-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1870,6 +2137,9 @@
     <t>Responded October 24, 2013</t>
   </si>
   <si>
+    <t>Mom 7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r181472629-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1882,6 +2152,9 @@
     <t>sa844shj, Guest Relations Manager at Howard Johnson Inn - Denton, responded to this reviewResponded October 24, 2013</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r179967374-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1909,6 +2182,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Debra T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r177850312-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2194,9 @@
     <t>09/19/2013</t>
   </si>
   <si>
+    <t>Anne H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r176073059-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1927,6 +2206,9 @@
     <t>09/06/2013</t>
   </si>
   <si>
+    <t>Y C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r175334718-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1948,6 +2230,9 @@
     <t>The room smelled like smoke, therte were holes in the blanket on the bed, looked like cigarette burns. The carpet had iron burns on it. The doors looked like they had the first paint from the building. This may be a good trucker stop, but no place for a single lady. More</t>
   </si>
   <si>
+    <t>Cathrine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r174478840-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1963,6 +2248,9 @@
     <t>Responded October 30, 2013</t>
   </si>
   <si>
+    <t>Carl W B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r173716465-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1975,6 +2263,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>dubelaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r171745241-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1993,6 +2284,9 @@
     <t>You get what you pay for at this property.  The staff was nice, but not helpful.  They were not able to recommend restaurants, or even the best toll free route to the airport.  The guys I checked out with did not even know that HOJOs will email the folio to me when I asked, but I decided to gambled and sure enough later in day I got the email with it.  Also, I found it odd at check in they asked if I wanted housekeeping.  Shouldn't that be assumed unless I say otherwise?  The room had near no outlets to charge my gadgets so I had to unplug the lamp so I can use an outlet to charge phone and stuff.  The furniture and decor has not been updated it looks like in about 20+ years with nicks and starches in stuff.  Also there were some stains in bathroom sink.  That said, on surface it was clean and the bed was comfortable.  Not super comfy pillow top like, but comfortable none the less.  It served the purpose of a shower and a place to sleep for the few packed days I needed to be in area.  Next time I would consider the motel 6 or comfort inn which share the parking area and seem to advertise similar rates.  You get what you pay for so if you are wanting something inexpensive you will have a decent bed, god sleep and...You get what you pay for at this property.  The staff was nice, but not helpful.  They were not able to recommend restaurants, or even the best toll free route to the airport.  The guys I checked out with did not even know that HOJOs will email the folio to me when I asked, but I decided to gambled and sure enough later in day I got the email with it.  Also, I found it odd at check in they asked if I wanted housekeeping.  Shouldn't that be assumed unless I say otherwise?  The room had near no outlets to charge my gadgets so I had to unplug the lamp so I can use an outlet to charge phone and stuff.  The furniture and decor has not been updated it looks like in about 20+ years with nicks and starches in stuff.  Also there were some stains in bathroom sink.  That said, on surface it was clean and the bed was comfortable.  Not super comfy pillow top like, but comfortable none the less.  It served the purpose of a shower and a place to sleep for the few packed days I needed to be in area.  Next time I would consider the motel 6 or comfort inn which share the parking area and seem to advertise similar rates.  You get what you pay for so if you are wanting something inexpensive you will have a decent bed, god sleep and shower here, but expect absolutely no thrills.  Oh, two more things, the continental breakfast existed, but it was not that great, and the A/C is very loud.  I am not a sensitive sleeper so it did not effect me, but if you are, you will not sleep with it on and it is Texas and you will want it on..More</t>
   </si>
   <si>
+    <t>sheenalynn06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r170894957-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2011,6 +2305,9 @@
     <t>I made a reservation online and once i got there the place looked nothing like the pictures! It is a dump we killed 2 spiders in one night! The so called free wifi did not work and when i called the front desk they wild not do anything about it.We thought we reserved one room dbl bed but got one bed dbl"size" (tiny) The manager is very rude and said we wld hv to pay $20 more for 2 beds and if i needed anything extra such as towels sheets pillows etc.Once we left the mgr charged my card $150 saying that we smoked in a non smoking room.Worst night of my life ruined the whole trip this place needs new mgmt they are scamming ppl for their money.when i went and tlked to the mgr about it he wld not do anything.all they want is money.If u give them ur card they will find any reason to chrge it but will tell u they are not going to charge anything..i am in the process of reporting them to BBB bc what these ppl are doin cannot be legal.More</t>
   </si>
   <si>
+    <t>Kirk M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r170684046-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2029,6 +2326,9 @@
     <t>We needed a place to stay for one night on our drive back to Kansas from New Orleans.  My wife called from the car and was quoted a price of 49.00.  When I got to the hotel, the host said that we could not have that room and would have to upgrade to a double queen for 72.00 per night.  I was tired and ready to relax so I took it.  The pool was pretty nice and the room was fine.  Not the cleaniest I have stayed in.  We went to breakfast at 8:00 am... No coffee, no fruit, nothing in the danish cabinet.... Waffle maker was empty... So basically we didn't get anything to eat.... Now I have a family of five, so breakfast is a big part of why we stay at places that have it.   There are plenty of hotels/motels in this area... I would find another one!!!!Final thoughts... Pool good/room ok/service horrid/ breakfast unacceptable!!!More</t>
   </si>
   <si>
+    <t>LUIS R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r142583997-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2041,6 +2341,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Dedra W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r142489068-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2050,6 +2353,9 @@
     <t>10/10/2012</t>
   </si>
   <si>
+    <t>BLACKWELL P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r140701972-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2068,6 +2374,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Pagoda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r138599030-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2086,6 +2395,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>mexiexpert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r134459129-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2101,6 +2413,9 @@
     <t>For $60.00, don't expect the Ritz!Clean bed and bathroom, that's all I wanted.  Hojo met that expectation</t>
   </si>
   <si>
+    <t>john d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r126629390-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2116,6 +2431,9 @@
     <t xml:space="preserve">Want a broken a/c they won't fix? Stay here.  Want a broken TV they won't fix? Stay here? Want to be treated like a second class citizen? Stay here. Want big holes I'm the floor under the carpet? Stay here. Want "clean" towels with stains on them? Stay here. Want worn out, torn up furniture? Stay here for a week. </t>
   </si>
   <si>
+    <t>Sue20101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r84381808-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2134,6 +2452,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>LostInTheSpiral</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r14715337-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2161,6 +2482,9 @@
     <t>GROSS!!!  The sheets were dirty &amp; had holes in them, trim was coming off the walls, puke stains were on the floor, water damage was on the ceiling, it was NOT CLEAN, and only 1/2 the lights worked.  We took about 5 minutes to look at the room and asked for our money back.  It didn't help that the person at the front desk was VERY high on marijuana and therefore had no clue what he was doing.  We had to look for another hotel room at 1:00 AM because we had booked the room weeks in advance and had no clue what was nearby.More</t>
   </si>
   <si>
+    <t>Happy_in_0klah0ma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r10056949-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2180,6 +2504,9 @@
   </si>
   <si>
     <t>Its OU vs Texas weekend... So getting a room in Denton wasnt a easy thing ...I reserved 3 rooms ...friends reserved 2 room so 5 in all... When i walked into our room i noticed it smelled bad looked clean but was just damp .. everything was damp...same with another room 2 was wet 3 wasnt...the air condictioner vent was wet and blowing it into the room... i had a tootsie roll layin on night stand and it had water all over it next morning... we didnt have a fridge even tho it saids fridge in all rooms...the hall way air wasnt on so it was hot in hall ways...Went to a near by eating place when tryin to enter the side door a worker stood in front of the entry door smoking and my husband had to ask her to move.. when she did she blew ciggetette smoke into his face befor doing so...I would not reccomend this hotel to any one and i will not make the mistake of staying there again.More</t>
+  </si>
+  <si>
+    <t>trackmansmokie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d141854-r7546076-Howard_Johnson_Inn_Denton-Denton_Texas.html</t>
@@ -2702,41 +3029,45 @@
       <c r="A2" t="n">
         <v>3564</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2758,56 +3089,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3564</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2819,56 +3154,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3564</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>159834</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2890,54 +3229,58 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3564</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>159835</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2959,54 +3302,58 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3564</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>159836</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -3028,56 +3375,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3564</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>159837</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3099,54 +3450,58 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3564</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>159838</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -3168,56 +3523,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3564</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>159839</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -3239,56 +3598,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3564</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>159840</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>114</v>
       </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3310,56 +3673,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3564</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>159841</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3371,54 +3738,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3564</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>159842</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3440,56 +3811,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3564</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>159843</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3511,56 +3886,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3564</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>159844</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3582,54 +3961,58 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3564</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>159845</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -3651,56 +4034,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3564</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>159846</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3722,56 +4109,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3564</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>114761</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3793,56 +4184,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3564</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>159847</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3864,56 +4259,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3564</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>159848</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3935,54 +4334,58 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3564</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>159849</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -4004,56 +4407,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3564</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>159850</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4075,56 +4482,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3564</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>159851</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -4146,56 +4557,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3564</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>159852</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4217,54 +4632,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="X23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3564</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>159853</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4286,54 +4705,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3564</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>159854</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -4355,56 +4778,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3564</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>1543</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4426,56 +4853,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3564</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>159855</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4497,56 +4928,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3564</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>159856</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4568,56 +5003,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="X28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3564</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>9511</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4629,54 +5068,58 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="X29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="Y29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3564</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>159857</v>
+      </c>
+      <c r="C30" t="s">
+        <v>284</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="J30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4698,56 +5141,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="Y30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3564</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>159858</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4769,56 +5216,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="X31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3564</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>159859</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4840,54 +5291,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="X32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3564</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>159860</v>
+      </c>
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4909,56 +5364,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="X33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3564</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4970,56 +5429,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="X34" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3564</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>159861</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -5037,54 +5500,58 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="X35" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3564</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>159862</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="J36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -5106,54 +5573,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="X36" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="Y36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3564</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>159863</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="O37" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -5175,56 +5646,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="X37" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="Y37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3564</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>159864</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5242,54 +5717,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="X38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3564</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>6868</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5311,56 +5790,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3564</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>159865</v>
+      </c>
+      <c r="C40" t="s">
+        <v>356</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5382,56 +5865,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="X40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="Y40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3564</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>159866</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -5453,54 +5940,58 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="X41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3564</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>12865</v>
+      </c>
+      <c r="C42" t="s">
+        <v>371</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5522,56 +6013,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="X42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="Y42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3564</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>159867</v>
+      </c>
+      <c r="C43" t="s">
+        <v>377</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="K43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5593,54 +6088,58 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="X43" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="Y43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3564</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>16821</v>
+      </c>
+      <c r="C44" t="s">
+        <v>385</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5662,56 +6161,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="X44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="Y44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3564</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>159868</v>
+      </c>
+      <c r="C45" t="s">
+        <v>391</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="J45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5723,54 +6226,58 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="X45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="Y45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3564</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>10837</v>
+      </c>
+      <c r="C46" t="s">
+        <v>400</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="J46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="O46" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5792,56 +6299,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="X46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="Y46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3564</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>159869</v>
+      </c>
+      <c r="C47" t="s">
+        <v>407</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="J47" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="K47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5861,56 +6372,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="X47" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="Y47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3564</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>159870</v>
+      </c>
+      <c r="C48" t="s">
+        <v>413</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="J48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="O48" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5928,56 +6443,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="X48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3564</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>159871</v>
+      </c>
+      <c r="C49" t="s">
+        <v>422</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="J49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="K49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="L49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="O49" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5993,54 +6512,58 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="X49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="Y49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3564</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>159872</v>
+      </c>
+      <c r="C50" t="s">
+        <v>431</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="O50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -6062,56 +6585,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="X50" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="Y50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3564</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>159873</v>
+      </c>
+      <c r="C51" t="s">
+        <v>438</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6133,56 +6660,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="X51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="Y51" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3564</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>111322</v>
+      </c>
+      <c r="C52" t="s">
+        <v>444</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="J52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="K52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="L52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6200,54 +6731,58 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="X52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="Y52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3564</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>159874</v>
+      </c>
+      <c r="C53" t="s">
+        <v>453</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="J53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="O53" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -6269,56 +6804,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="X53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="Y53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3564</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>159875</v>
+      </c>
+      <c r="C54" t="s">
+        <v>459</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="J54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="K54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="O54" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6330,56 +6869,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="X54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="Y54" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3564</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>159876</v>
+      </c>
+      <c r="C55" t="s">
+        <v>468</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="J55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="K55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="L55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="O55" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -6401,54 +6944,58 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="X55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="Y55" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3564</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>159877</v>
+      </c>
+      <c r="C56" t="s">
+        <v>478</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="J56" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="O56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -6470,56 +7017,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="X56" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="Y56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3564</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>159878</v>
+      </c>
+      <c r="C57" t="s">
+        <v>482</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="J57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="K57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="L57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="O57" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -6541,56 +7092,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="X57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="Y57" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3564</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>159879</v>
+      </c>
+      <c r="C58" t="s">
+        <v>492</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="J58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="K58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="O58" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6606,56 +7161,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="X58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="Y58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3564</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>159880</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="J59" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="K59" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="L59" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6667,56 +7226,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="X59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="Y59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3564</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>159881</v>
+      </c>
+      <c r="C60" t="s">
+        <v>509</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="J60" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="K60" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="L60" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="O60" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6738,56 +7301,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="X60" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="Y60" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3564</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>159882</v>
+      </c>
+      <c r="C61" t="s">
+        <v>516</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="J61" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="K61" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="L61" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="O61" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6799,54 +7366,58 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y61" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3564</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>159883</v>
+      </c>
+      <c r="C62" t="s">
+        <v>523</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="J62" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6868,56 +7439,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="X62" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="Y62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>3564</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>7005</v>
+      </c>
+      <c r="C63" t="s">
+        <v>528</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="J63" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="K63" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="L63" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="O63" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6929,54 +7504,58 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="X63" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="Y63" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3564</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>159884</v>
+      </c>
+      <c r="C64" t="s">
+        <v>536</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="J64" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="O64" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6998,56 +7577,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="X64" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="Y64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3564</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>159885</v>
+      </c>
+      <c r="C65" t="s">
+        <v>543</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="J65" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="K65" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="L65" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7059,56 +7642,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="X65" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="Y65" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3564</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>13914</v>
+      </c>
+      <c r="C66" t="s">
+        <v>550</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>487</v>
+        <v>552</v>
       </c>
       <c r="J66" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="K66" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="L66" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="O66" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7120,56 +7707,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="X66" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="Y66" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3564</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>11920</v>
+      </c>
+      <c r="C67" t="s">
+        <v>557</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="J67" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="K67" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="L67" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="O67" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7191,56 +7782,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="X67" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="Y67" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3564</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>159886</v>
+      </c>
+      <c r="C68" t="s">
+        <v>564</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="J68" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="K68" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="L68" t="s">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="O68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -7256,56 +7851,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="X68" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="Y68" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3564</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>71102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>572</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
       <c r="J69" t="s">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="K69" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="L69" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="O69" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7323,56 +7922,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="X69" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="Y69" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3564</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>159887</v>
+      </c>
+      <c r="C70" t="s">
+        <v>579</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="J70" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="K70" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="L70" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7394,54 +7997,58 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="X70" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="Y70" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3564</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>159888</v>
+      </c>
+      <c r="C71" t="s">
+        <v>587</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
       <c r="J71" t="s">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7463,54 +8070,58 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="X71" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="Y71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3564</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>159889</v>
+      </c>
+      <c r="C72" t="s">
+        <v>591</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>521</v>
+        <v>592</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>522</v>
+        <v>593</v>
       </c>
       <c r="J72" t="s">
-        <v>523</v>
+        <v>594</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="O72" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -7530,56 +8141,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="X72" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="Y72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3564</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>159890</v>
+      </c>
+      <c r="C73" t="s">
+        <v>598</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="J73" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="K73" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="L73" t="s">
-        <v>531</v>
+        <v>603</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="O73" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -7595,54 +8210,58 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="X73" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="Y73" t="s">
-        <v>533</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3564</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>41124</v>
+      </c>
+      <c r="C74" t="s">
+        <v>606</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="J74" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7664,54 +8283,58 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="X74" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="Y74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3564</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>6841</v>
+      </c>
+      <c r="C75" t="s">
+        <v>610</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>538</v>
+        <v>612</v>
       </c>
       <c r="J75" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="O75" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7733,47 +8356,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="X75" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="Y75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3564</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>6697</v>
+      </c>
+      <c r="C76" t="s">
+        <v>614</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="J76" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="K76" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="L76" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
@@ -7800,54 +8427,58 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="X76" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="Y76" t="s">
-        <v>545</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3564</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>159891</v>
+      </c>
+      <c r="C77" t="s">
+        <v>621</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="J77" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="O77" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7869,54 +8500,58 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="X77" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="Y77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3564</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>2463</v>
+      </c>
+      <c r="C78" t="s">
+        <v>627</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>551</v>
+        <v>628</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="J78" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="O78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7938,54 +8573,58 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="X78" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="Y78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>3564</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>104658</v>
+      </c>
+      <c r="C79" t="s">
+        <v>634</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>558</v>
+        <v>636</v>
       </c>
       <c r="J79" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="O79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8007,54 +8646,58 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="X79" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="Y79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>3564</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>159892</v>
+      </c>
+      <c r="C80" t="s">
+        <v>638</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="J80" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="O80" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8076,56 +8719,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="X80" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="Y80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>3564</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>50171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>641</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>562</v>
+        <v>642</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="J81" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="K81" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
       <c r="L81" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="O81" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8147,54 +8794,58 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="X81" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="Y81" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>3564</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>159893</v>
+      </c>
+      <c r="C82" t="s">
+        <v>650</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
       <c r="J82" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="O82" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -8216,56 +8867,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="X82" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="Y82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>3564</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>25103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>654</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
       <c r="J83" t="s">
-        <v>575</v>
+        <v>657</v>
       </c>
       <c r="K83" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="L83" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="O83" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -8287,54 +8942,58 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="X83" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="Y83" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>3564</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C84" t="s">
+        <v>661</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
       <c r="J84" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="O84" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8356,56 +9015,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
       <c r="X84" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="Y84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>3564</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>159894</v>
+      </c>
+      <c r="C85" t="s">
+        <v>668</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>585</v>
+        <v>669</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>586</v>
+        <v>670</v>
       </c>
       <c r="J85" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="K85" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="L85" t="s">
-        <v>589</v>
+        <v>673</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="O85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8427,54 +9090,58 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
       <c r="X85" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="Y85" t="s">
-        <v>590</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>3564</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>159895</v>
+      </c>
+      <c r="C86" t="s">
+        <v>675</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>591</v>
+        <v>676</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>592</v>
+        <v>677</v>
       </c>
       <c r="J86" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="O86" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8496,54 +9163,58 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
       <c r="X86" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="Y86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>3564</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>105995</v>
+      </c>
+      <c r="C87" t="s">
+        <v>679</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>594</v>
+        <v>680</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>595</v>
+        <v>681</v>
       </c>
       <c r="J87" t="s">
-        <v>596</v>
+        <v>682</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
       <c r="O87" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -8565,54 +9236,58 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>598</v>
+        <v>684</v>
       </c>
       <c r="X87" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="Y87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>3564</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>33053</v>
+      </c>
+      <c r="C88" t="s">
+        <v>686</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>600</v>
+        <v>687</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="J88" t="s">
-        <v>602</v>
+        <v>689</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
       <c r="O88" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8634,54 +9309,58 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>603</v>
+        <v>690</v>
       </c>
       <c r="X88" t="s">
-        <v>604</v>
+        <v>691</v>
       </c>
       <c r="Y88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>3564</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>159896</v>
+      </c>
+      <c r="C89" t="s">
+        <v>692</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>605</v>
+        <v>693</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>606</v>
+        <v>694</v>
       </c>
       <c r="J89" t="s">
-        <v>607</v>
+        <v>695</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
       <c r="O89" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8703,54 +9382,58 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>608</v>
+        <v>696</v>
       </c>
       <c r="X89" t="s">
-        <v>609</v>
+        <v>697</v>
       </c>
       <c r="Y89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>3564</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>159897</v>
+      </c>
+      <c r="C90" t="s">
+        <v>698</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>611</v>
+        <v>700</v>
       </c>
       <c r="J90" t="s">
-        <v>612</v>
+        <v>701</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>613</v>
+        <v>702</v>
       </c>
       <c r="O90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8772,54 +9455,58 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>614</v>
+        <v>703</v>
       </c>
       <c r="X90" t="s">
-        <v>615</v>
+        <v>704</v>
       </c>
       <c r="Y90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>3564</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>159898</v>
+      </c>
+      <c r="C91" t="s">
+        <v>705</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>617</v>
+        <v>707</v>
       </c>
       <c r="J91" t="s">
-        <v>618</v>
+        <v>708</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>613</v>
+        <v>702</v>
       </c>
       <c r="O91" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8841,54 +9528,58 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="X91" t="s">
-        <v>615</v>
+        <v>704</v>
       </c>
       <c r="Y91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>3564</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C92" t="s">
+        <v>710</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>620</v>
+        <v>711</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>621</v>
+        <v>712</v>
       </c>
       <c r="J92" t="s">
-        <v>622</v>
+        <v>713</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>613</v>
+        <v>702</v>
       </c>
       <c r="O92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8910,54 +9601,58 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>623</v>
+        <v>714</v>
       </c>
       <c r="X92" t="s">
-        <v>624</v>
+        <v>715</v>
       </c>
       <c r="Y92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>3564</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>16821</v>
+      </c>
+      <c r="C93" t="s">
+        <v>385</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>625</v>
+        <v>716</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>626</v>
+        <v>717</v>
       </c>
       <c r="J93" t="s">
-        <v>627</v>
+        <v>718</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>628</v>
+        <v>719</v>
       </c>
       <c r="O93" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8979,54 +9674,58 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>623</v>
+        <v>714</v>
       </c>
       <c r="X93" t="s">
-        <v>624</v>
+        <v>715</v>
       </c>
       <c r="Y93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>3564</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>18749</v>
+      </c>
+      <c r="C94" t="s">
+        <v>720</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>629</v>
+        <v>721</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>630</v>
+        <v>722</v>
       </c>
       <c r="J94" t="s">
-        <v>631</v>
+        <v>723</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>628</v>
+        <v>719</v>
       </c>
       <c r="O94" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -9048,54 +9747,58 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>623</v>
+        <v>714</v>
       </c>
       <c r="X94" t="s">
-        <v>624</v>
+        <v>715</v>
       </c>
       <c r="Y94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>3564</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>9049</v>
+      </c>
+      <c r="C95" t="s">
+        <v>724</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>632</v>
+        <v>725</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>633</v>
+        <v>726</v>
       </c>
       <c r="J95" t="s">
-        <v>634</v>
+        <v>727</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>628</v>
+        <v>719</v>
       </c>
       <c r="O95" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -9109,56 +9812,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>623</v>
+        <v>714</v>
       </c>
       <c r="X95" t="s">
-        <v>624</v>
+        <v>715</v>
       </c>
       <c r="Y95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>3564</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>27950</v>
+      </c>
+      <c r="C96" t="s">
+        <v>728</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>635</v>
+        <v>729</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>636</v>
+        <v>730</v>
       </c>
       <c r="J96" t="s">
-        <v>637</v>
+        <v>731</v>
       </c>
       <c r="K96" t="s">
-        <v>638</v>
+        <v>732</v>
       </c>
       <c r="L96" t="s">
-        <v>639</v>
+        <v>733</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="O96" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9180,54 +9887,58 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>623</v>
+        <v>714</v>
       </c>
       <c r="X96" t="s">
-        <v>624</v>
+        <v>715</v>
       </c>
       <c r="Y96" t="s">
-        <v>641</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>3564</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>159899</v>
+      </c>
+      <c r="C97" t="s">
+        <v>736</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>642</v>
+        <v>737</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>643</v>
+        <v>738</v>
       </c>
       <c r="J97" t="s">
-        <v>644</v>
+        <v>739</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="O97" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9249,54 +9960,58 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="X97" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
       <c r="Y97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>3564</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>159900</v>
+      </c>
+      <c r="C98" t="s">
+        <v>742</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>647</v>
+        <v>743</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="J98" t="s">
-        <v>649</v>
+        <v>745</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>650</v>
+        <v>746</v>
       </c>
       <c r="O98" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9318,56 +10033,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="X98" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
       <c r="Y98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>3564</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>159901</v>
+      </c>
+      <c r="C99" t="s">
+        <v>747</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>651</v>
+        <v>748</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>652</v>
+        <v>749</v>
       </c>
       <c r="J99" t="s">
-        <v>653</v>
+        <v>750</v>
       </c>
       <c r="K99" t="s">
-        <v>654</v>
+        <v>751</v>
       </c>
       <c r="L99" t="s">
-        <v>655</v>
+        <v>752</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="O99" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9389,47 +10108,51 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="X99" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
       <c r="Y99" t="s">
-        <v>656</v>
+        <v>753</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>3564</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>159902</v>
+      </c>
+      <c r="C100" t="s">
+        <v>754</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>657</v>
+        <v>755</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>658</v>
+        <v>756</v>
       </c>
       <c r="J100" t="s">
-        <v>659</v>
+        <v>757</v>
       </c>
       <c r="K100" t="s">
-        <v>660</v>
+        <v>758</v>
       </c>
       <c r="L100" t="s">
-        <v>661</v>
+        <v>759</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
@@ -9456,56 +10179,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="X100" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
       <c r="Y100" t="s">
-        <v>662</v>
+        <v>760</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>3564</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>18895</v>
+      </c>
+      <c r="C101" t="s">
+        <v>761</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>663</v>
+        <v>762</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>664</v>
+        <v>763</v>
       </c>
       <c r="J101" t="s">
-        <v>665</v>
+        <v>764</v>
       </c>
       <c r="K101" t="s">
-        <v>666</v>
+        <v>765</v>
       </c>
       <c r="L101" t="s">
-        <v>667</v>
+        <v>766</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="O101" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -9527,54 +10254,58 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="X101" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
       <c r="Y101" t="s">
-        <v>668</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>3564</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>159903</v>
+      </c>
+      <c r="C102" t="s">
+        <v>768</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>669</v>
+        <v>769</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="J102" t="s">
-        <v>671</v>
+        <v>771</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>672</v>
+        <v>772</v>
       </c>
       <c r="O102" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9598,35 +10329,39 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>3564</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>108123</v>
+      </c>
+      <c r="C103" t="s">
+        <v>773</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>673</v>
+        <v>774</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>674</v>
+        <v>775</v>
       </c>
       <c r="J103" t="s">
-        <v>675</v>
+        <v>776</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s"/>
@@ -9634,10 +10369,10 @@
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>672</v>
+        <v>772</v>
       </c>
       <c r="O103" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9658,51 +10393,52 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="s"/>
-      <c r="X103" t="s"/>
-      <c r="Y103" t="s"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>3564</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>159904</v>
+      </c>
+      <c r="C104" t="s">
+        <v>777</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>676</v>
+        <v>778</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>677</v>
+        <v>779</v>
       </c>
       <c r="J104" t="s">
-        <v>678</v>
+        <v>780</v>
       </c>
       <c r="K104" t="s">
-        <v>679</v>
+        <v>781</v>
       </c>
       <c r="L104" t="s">
-        <v>680</v>
+        <v>782</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>681</v>
+        <v>783</v>
       </c>
       <c r="O104" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9726,50 +10462,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>680</v>
+        <v>782</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>3564</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>159905</v>
+      </c>
+      <c r="C105" t="s">
+        <v>784</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>682</v>
+        <v>785</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>683</v>
+        <v>786</v>
       </c>
       <c r="J105" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="K105" t="s">
-        <v>685</v>
+        <v>788</v>
       </c>
       <c r="L105" t="s">
-        <v>686</v>
+        <v>789</v>
       </c>
       <c r="M105" t="n">
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>687</v>
+        <v>790</v>
       </c>
       <c r="O105" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="s"/>
@@ -9783,41 +10523,45 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>686</v>
+        <v>789</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>3564</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>159906</v>
+      </c>
+      <c r="C106" t="s">
+        <v>791</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>688</v>
+        <v>792</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
       <c r="J106" t="s">
-        <v>690</v>
+        <v>794</v>
       </c>
       <c r="K106" t="s">
-        <v>691</v>
+        <v>795</v>
       </c>
       <c r="L106" t="s">
-        <v>692</v>
+        <v>796</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
@@ -9846,41 +10590,45 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>692</v>
+        <v>796</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>3564</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>16762</v>
+      </c>
+      <c r="C107" t="s">
+        <v>797</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>693</v>
+        <v>798</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>694</v>
+        <v>799</v>
       </c>
       <c r="J107" t="s">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="K107" t="s">
-        <v>696</v>
+        <v>801</v>
       </c>
       <c r="L107" t="s">
-        <v>697</v>
+        <v>802</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -9909,50 +10657,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>697</v>
+        <v>802</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>3564</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>159907</v>
+      </c>
+      <c r="C108" t="s">
+        <v>803</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>698</v>
+        <v>804</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>699</v>
+        <v>805</v>
       </c>
       <c r="J108" t="s">
-        <v>700</v>
+        <v>806</v>
       </c>
       <c r="K108" t="s">
-        <v>701</v>
+        <v>807</v>
       </c>
       <c r="L108" t="s">
-        <v>702</v>
+        <v>808</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>703</v>
+        <v>809</v>
       </c>
       <c r="O108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9976,50 +10728,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>702</v>
+        <v>808</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>3564</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>159908</v>
+      </c>
+      <c r="C109" t="s">
+        <v>810</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>704</v>
+        <v>811</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>705</v>
+        <v>812</v>
       </c>
       <c r="J109" t="s">
-        <v>706</v>
+        <v>813</v>
       </c>
       <c r="K109" t="s">
-        <v>707</v>
+        <v>814</v>
       </c>
       <c r="L109" t="s">
-        <v>708</v>
+        <v>815</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>709</v>
+        <v>816</v>
       </c>
       <c r="O109" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -10041,56 +10797,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>710</v>
+        <v>817</v>
       </c>
       <c r="X109" t="s">
-        <v>711</v>
+        <v>818</v>
       </c>
       <c r="Y109" t="s">
-        <v>712</v>
+        <v>819</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>3564</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>159909</v>
+      </c>
+      <c r="C110" t="s">
+        <v>820</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>713</v>
+        <v>821</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>714</v>
+        <v>822</v>
       </c>
       <c r="J110" t="s">
-        <v>715</v>
+        <v>823</v>
       </c>
       <c r="K110" t="s">
-        <v>716</v>
+        <v>824</v>
       </c>
       <c r="L110" t="s">
-        <v>717</v>
+        <v>825</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>718</v>
+        <v>826</v>
       </c>
       <c r="O110" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -10114,50 +10874,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>719</v>
+        <v>827</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>3564</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>159910</v>
+      </c>
+      <c r="C111" t="s">
+        <v>828</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>720</v>
+        <v>829</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>721</v>
+        <v>830</v>
       </c>
       <c r="J111" t="s">
-        <v>722</v>
+        <v>831</v>
       </c>
       <c r="K111" t="s">
-        <v>723</v>
+        <v>832</v>
       </c>
       <c r="L111" t="s">
-        <v>724</v>
+        <v>833</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>725</v>
+        <v>834</v>
       </c>
       <c r="O111" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -10179,7 +10943,7 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>724</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
